--- a/tests/services/data/pbmc_invalid.xlsx
+++ b/tests/services/data/pbmc_invalid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlurye/code/cidc-api-gae/tests/services/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-api-gae/tests/services/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1778C7-B67C-094B-8CBF-385D864A664A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D276B53F-8296-2A41-B508-CB4592785540}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="23760" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,7 +290,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -563,7 +563,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -748,15 +748,6 @@
     <t>MATERIAL REMAINING</t>
   </si>
   <si>
-    <t>SAMPLE QUALITY STATUS</t>
-  </si>
-  <si>
-    <t>SAMPLE REPLACEMENT</t>
-  </si>
-  <si>
-    <t>SAMPLE STATUS</t>
-  </si>
-  <si>
     <t>R123</t>
   </si>
   <si>
@@ -827,13 +818,22 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>ALIQUOT QUALITY STATUS</t>
+  </si>
+  <si>
+    <t>ALIQUOT REPLACEMENT</t>
+  </si>
+  <si>
+    <t>ALIQUOT STATUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +852,12 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -882,7 +888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -916,11 +922,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -935,6 +978,15 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1277,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1398,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1433,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1468,7 +1520,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1608,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1643,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1678,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1713,7 +1765,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1888,7 +1940,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1923,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1951,36 +2003,36 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="10"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2056,13 +2108,13 @@
         <v>47</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -2088,7 +2140,7 @@
         <v>12345</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I23" s="6">
         <v>33234</v>
@@ -2103,13 +2155,13 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P23">
         <v>100</v>
@@ -2118,16 +2170,16 @@
         <v>100</v>
       </c>
       <c r="R23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S23">
         <v>10</v>
       </c>
       <c r="T23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V23">
         <v>123</v>
@@ -2139,13 +2191,13 @@
         <v>100</v>
       </c>
       <c r="Y23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AA23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
@@ -2171,7 +2223,7 @@
         <v>12345</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I24" s="6">
         <v>33234</v>
@@ -2186,13 +2238,13 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="M24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P24">
         <v>100</v>
@@ -2201,16 +2253,16 @@
         <v>100</v>
       </c>
       <c r="R24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S24">
         <v>10</v>
       </c>
       <c r="T24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="V24">
         <v>123</v>
@@ -2222,13 +2274,13 @@
         <v>100</v>
       </c>
       <c r="Y24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AA24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -2254,25 +2306,25 @@
         <v>12345</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J25" s="5">
         <v>0.42430555555555555</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L25" s="5">
         <v>0.42430555555555555</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P25">
         <v>100</v>
@@ -2281,16 +2333,16 @@
         <v>100</v>
       </c>
       <c r="R25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S25">
         <v>10</v>
       </c>
       <c r="T25" t="s">
+        <v>62</v>
+      </c>
+      <c r="U25" t="s">
         <v>65</v>
-      </c>
-      <c r="U25" t="s">
-        <v>68</v>
       </c>
       <c r="V25">
         <v>123</v>
@@ -2302,13 +2354,13 @@
         <v>100</v>
       </c>
       <c r="Y25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AA25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -2334,7 +2386,7 @@
         <v>12345</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I26" s="6">
         <v>33234</v>
@@ -2349,13 +2401,13 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="M26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P26">
         <v>100</v>
@@ -2364,16 +2416,16 @@
         <v>100</v>
       </c>
       <c r="R26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S26">
         <v>10</v>
       </c>
       <c r="T26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="V26">
         <v>123</v>
@@ -2385,13 +2437,13 @@
         <v>100</v>
       </c>
       <c r="Y26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AA26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -2417,7 +2469,7 @@
         <v>12345</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="6">
         <v>33234</v>
@@ -2432,13 +2484,13 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -2447,16 +2499,16 @@
         <v>100</v>
       </c>
       <c r="R27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S27">
         <v>10</v>
       </c>
       <c r="T27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V27">
         <v>123</v>
@@ -2468,13 +2520,13 @@
         <v>100</v>
       </c>
       <c r="Y27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AA27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -2500,13 +2552,13 @@
         <v>12345</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I28" s="6">
         <v>33234</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K28">
         <v>41193</v>
@@ -2515,13 +2567,13 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P28">
         <v>100</v>
@@ -2530,16 +2582,16 @@
         <v>100</v>
       </c>
       <c r="R28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S28">
         <v>10</v>
       </c>
       <c r="T28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="V28">
         <v>123</v>
@@ -2551,13 +2603,13 @@
         <v>100</v>
       </c>
       <c r="Y28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AA28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
